--- a/USD:TWD/1 MONTH/20227/comparison.xlsx
+++ b/USD:TWD/1 MONTH/20227/comparison.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennings.chan/Desktop/FCST App_Test/USD:TWD/1 MONTH/20227/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220BDEB4-2D4F-2245-AA88-94EBD97D1CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +113,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +199,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +251,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +444,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -423,10 +475,10 @@
         <v>0.47</v>
       </c>
       <c r="D2">
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -440,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -454,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -468,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>

--- a/USD:TWD/1 MONTH/20227/comparison.xlsx
+++ b/USD:TWD/1 MONTH/20227/comparison.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennings.chan/Desktop/FCST App_Test/USD:TWD/1 MONTH/20227/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220BDEB4-2D4F-2245-AA88-94EBD97D1CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,20 +31,20 @@
     <t>WMA</t>
   </si>
   <si>
+    <t>lstm</t>
+  </si>
+  <si>
     <t>SARIMA</t>
   </si>
   <si>
     <t>ARIMA</t>
-  </si>
-  <si>
-    <t>lstm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +107,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -167,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,16 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -475,10 +423,10 @@
         <v>0.47</v>
       </c>
       <c r="D2">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -492,7 +440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -514,13 +462,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.29</v>
+        <v>1.43</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -528,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>2.29</v>
       </c>
       <c r="D6">
         <v>0</v>

--- a/USD:TWD/1 MONTH/20227/comparison.xlsx
+++ b/USD:TWD/1 MONTH/20227/comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>model</t>
   </si>
@@ -28,7 +28,7 @@
     <t>LightGBM</t>
   </si>
   <si>
-    <t>WMA</t>
+    <t>Holt</t>
   </si>
   <si>
     <t>lstm</t>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>ARIMA</t>
+  </si>
+  <si>
+    <t>Prophet</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>Holt Winter</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -395,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -448,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -462,7 +474,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -476,9 +488,51 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.29</v>
+        <v>1.25</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1.29</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2.85</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
